--- a/Listen/Aufwand/O(N).xlsx
+++ b/Listen/Aufwand/O(N).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\git\2022-SWP-PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\git\2022-SWP-PYTHON\Listen\Aufwand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF199FC-E5B1-4F0E-BFB3-AAC271CF817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5884ACD8-BB40-4F72-862F-D7DA0F94618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="B3:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,10 +651,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Listen/Aufwand/O(N).xlsx
+++ b/Listen/Aufwand/O(N).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\git\2022-SWP-PYTHON\Listen\Aufwand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5884ACD8-BB40-4F72-862F-D7DA0F94618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28D57A-164E-4A0B-ACFA-B1D6CB248FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="223" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
